--- a/Week9/Interview/Thursday/Yellow team/note-template -- Yellow Team.xlsx
+++ b/Week9/Interview/Thursday/Yellow team/note-template -- Yellow Team.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="43">
   <si>
     <t xml:space="preserve">Interviewee:Teresa</t>
   </si>
@@ -100,25 +100,55 @@
     <t xml:space="preserve">Level of abstraction, make a constructor which is private,use prepared statement refers to one instance, use object once</t>
   </si>
   <si>
+    <t xml:space="preserve">Interviewee:Dev</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Score: 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interviewer:Teresa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Introduced herself, past education, listed skills learned, spoke about projects,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the difference between JRE/JDK/JVM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jvm convert java code into bite code,jre provides libraries and jdk contains jvm and jre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is a bean vs pojo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pojo setter getter,constructor, to string ,hashcode-- does not now what a bean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is SQL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Structured Query language, used to interact with database</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is a cascade delete</t>
+  </si>
+  <si>
+    <t xml:space="preserve">delete orphan records</t>
+  </si>
+  <si>
+    <t xml:space="preserve">what is a javascript</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scripting language, interact with browser , manipulate contents of browser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interviewee:Raphael</t>
+  </si>
+  <si>
     <t xml:space="preserve">Score:</t>
   </si>
   <si>
-    <t xml:space="preserve">Interviewer:Raphael</t>
-  </si>
-  <si>
     <t xml:space="preserve">Scribe:Dev</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ok</t>
-  </si>
-  <si>
-    <t xml:space="preserve">java, can use any where, structural, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Interviewee:Raphael</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Interviewer:Teresa</t>
   </si>
 </sst>
 </file>
@@ -169,15 +199,15 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="0"/>
+      <name val="Arial"/>
+      <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="1"/>
-      <charset val="1"/>
+      <name val="Calibri"/>
+      <family val="0"/>
     </font>
   </fonts>
   <fills count="3">
@@ -319,47 +349,47 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -442,8 +472,8 @@
   </sheetPr>
   <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A21" activeCellId="0" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -499,7 +529,7 @@
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -521,102 +551,102 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="9" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="9" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="9" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="9" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="12"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="10"/>
+      <c r="A15" s="11"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="9"/>
     </row>
     <row r="16" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="13"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="15"/>
+      <c r="A16" s="12"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="14"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="11" t="s">
-        <v>0</v>
+      <c r="A17" s="10" t="s">
+        <v>26</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
     </row>
-    <row r="19" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -637,13 +667,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2"/>
-      <c r="B22" s="3" t="s">
+    <row r="22" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -659,36 +691,66 @@
       <c r="C24" s="2"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="8"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="10"/>
+      <c r="A25" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="10"/>
+      <c r="A26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="12"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="10"/>
+      <c r="A27" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="8"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="10"/>
+      <c r="A28" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="8"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="10"/>
+      <c r="A29" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="11" t="s">
-        <v>31</v>
+      <c r="A31" s="10" t="s">
+        <v>40</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>2</v>
@@ -696,14 +758,14 @@
     </row>
     <row r="32" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
     </row>
     <row r="33" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -744,44 +806,44 @@
       <c r="C38" s="2"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="8"/>
-      <c r="B39" s="9"/>
-      <c r="C39" s="10"/>
+      <c r="A39" s="7"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="9"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="10"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="9"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="12"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="10"/>
+      <c r="A41" s="11"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="9"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="8"/>
-      <c r="B42" s="9"/>
-      <c r="C42" s="10"/>
+      <c r="A42" s="7"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="9"/>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="8"/>
-      <c r="B43" s="9"/>
-      <c r="C43" s="10"/>
+      <c r="A43" s="7"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="9"/>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="16"/>
-      <c r="B44" s="9"/>
-      <c r="C44" s="17"/>
+      <c r="A44" s="17"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="10"/>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="16"/>
-      <c r="B45" s="9"/>
-      <c r="C45" s="17"/>
+      <c r="A45" s="17"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="10"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="16"/>
-      <c r="B46" s="9"/>
-      <c r="C46" s="17"/>
+      <c r="A46" s="17"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="10"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
